--- a/Underlag/Loadcases4.xlsx
+++ b/Underlag/Loadcases4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Utvecklingsprojekt\PileGroups\Underlag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEAD1E5-88FB-47CB-8729-F7C4D73C251E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAB70E81-339A-45B8-8E90-3A6D1CEB4127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-5460" windowWidth="16440" windowHeight="29040" xr2:uid="{A97B70E3-41DD-447F-A85E-C74C2443E07A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27930" windowHeight="16440" xr2:uid="{A97B70E3-41DD-447F-A85E-C74C2443E07A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>FX [kN]</t>
   </si>
@@ -63,6 +63,24 @@
   </si>
   <si>
     <t>RYMDPÅLGRUPP</t>
+  </si>
+  <si>
+    <t>dir</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>incl</t>
+  </si>
+  <si>
+    <t>len</t>
+  </si>
+  <si>
+    <t>0_R_N_270_10</t>
   </si>
 </sst>
 </file>
@@ -460,13 +478,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5D875B8-1462-411A-90CA-84ECF8BC4300}">
-  <dimension ref="A1:X883"/>
+  <dimension ref="A1:AI883"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="29" max="29" width="20" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C1" s="6" t="s">
@@ -1407,7 +1428,7 @@
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
     </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1430,7 +1451,7 @@
       <c r="W17" s="5"/>
       <c r="X17" s="5"/>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1453,7 +1474,7 @@
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1476,7 +1497,7 @@
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
     </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C20" s="1"/>
       <c r="F20" s="1"/>
       <c r="I20" s="1"/>
@@ -1495,7 +1516,7 @@
       <c r="W20" s="5"/>
       <c r="X20" s="5"/>
     </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C21" s="1"/>
       <c r="F21" s="1"/>
       <c r="I21" s="1"/>
@@ -1514,7 +1535,7 @@
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C22" s="1"/>
       <c r="F22" s="1"/>
       <c r="I22" s="1"/>
@@ -1533,7 +1554,7 @@
       <c r="W22" s="5"/>
       <c r="X22" s="5"/>
     </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C23" s="1"/>
       <c r="F23" s="1"/>
       <c r="I23" s="1"/>
@@ -1552,7 +1573,7 @@
       <c r="W23" s="5"/>
       <c r="X23" s="5"/>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C24" s="1"/>
       <c r="F24" s="1"/>
       <c r="I24" s="1"/>
@@ -1571,16 +1592,28 @@
       <c r="W24" s="5"/>
       <c r="X24" s="5"/>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C25" s="1"/>
       <c r="F25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="J25" s="1">
+        <v>-852</v>
+      </c>
+      <c r="K25" s="1">
+        <v>625.4</v>
+      </c>
+      <c r="L25" s="1">
+        <v>-9562.9</v>
+      </c>
+      <c r="M25" s="1">
+        <v>-4740.17</v>
+      </c>
+      <c r="N25" s="1">
+        <v>-2856.47</v>
+      </c>
+      <c r="O25" s="1">
+        <v>-256.33999999999997</v>
+      </c>
       <c r="Q25" s="4"/>
       <c r="R25" s="5"/>
       <c r="S25" s="5"/>
@@ -1590,16 +1623,28 @@
       <c r="W25" s="5"/>
       <c r="X25" s="5"/>
     </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C26" s="1"/>
       <c r="F26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="J26" s="1">
+        <v>160.69999999999999</v>
+      </c>
+      <c r="K26" s="1">
+        <v>413.3</v>
+      </c>
+      <c r="L26" s="1">
+        <v>-13719.2</v>
+      </c>
+      <c r="M26" s="1">
+        <v>-4829.7</v>
+      </c>
+      <c r="N26" s="1">
+        <v>-316.73</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1171.01</v>
+      </c>
       <c r="Q26" s="4"/>
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
@@ -1609,16 +1654,28 @@
       <c r="W26" s="5"/>
       <c r="X26" s="5"/>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C27" s="1"/>
       <c r="F27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="J27" s="1">
+        <v>-205.9</v>
+      </c>
+      <c r="K27" s="1">
+        <v>873.3</v>
+      </c>
+      <c r="L27" s="1">
+        <v>-9560.7999999999993</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-4879.3500000000004</v>
+      </c>
+      <c r="N27" s="1">
+        <v>-1157.48</v>
+      </c>
+      <c r="O27" s="1">
+        <v>1543.17</v>
+      </c>
       <c r="Q27" s="4"/>
       <c r="R27" s="5"/>
       <c r="S27" s="5"/>
@@ -1628,16 +1685,28 @@
       <c r="W27" s="5"/>
       <c r="X27" s="5"/>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="F28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
+      <c r="J28" s="1">
+        <v>-274.7</v>
+      </c>
+      <c r="K28" s="1">
+        <v>42.3</v>
+      </c>
+      <c r="L28" s="1">
+        <v>-12498.8</v>
+      </c>
+      <c r="M28" s="1">
+        <v>-3233.78</v>
+      </c>
+      <c r="N28" s="1">
+        <v>-1008.37</v>
+      </c>
+      <c r="O28" s="1">
+        <v>555.17999999999995</v>
+      </c>
       <c r="Q28" s="4"/>
       <c r="R28" s="5"/>
       <c r="S28" s="5"/>
@@ -1647,159 +1716,551 @@
       <c r="W28" s="5"/>
       <c r="X28" s="5"/>
     </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C29" s="1"/>
       <c r="F29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
+      <c r="J29" s="1">
+        <v>-445.6</v>
+      </c>
+      <c r="K29" s="1">
+        <v>387</v>
+      </c>
+      <c r="L29" s="1">
+        <v>-8553.6</v>
+      </c>
+      <c r="M29" s="1">
+        <v>-2731.46</v>
+      </c>
+      <c r="N29" s="1">
+        <v>-1714.84</v>
+      </c>
+      <c r="O29" s="1">
+        <v>42.71</v>
+      </c>
       <c r="Q29" s="4"/>
       <c r="R29" s="5"/>
       <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="5"/>
-      <c r="X29" s="5"/>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="U29" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="V29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="W29" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="X29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB29" s="4">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="AF29" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="AG29" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C30" s="1"/>
       <c r="F30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="J30" s="1">
+        <v>-141.9</v>
+      </c>
+      <c r="K30" s="1">
+        <v>115.3</v>
+      </c>
+      <c r="L30" s="1">
+        <v>-15718.9</v>
+      </c>
+      <c r="M30" s="1">
+        <v>-3644.85</v>
+      </c>
+      <c r="N30" s="1">
+        <v>-818.93</v>
+      </c>
+      <c r="O30" s="1">
+        <v>593.66999999999996</v>
+      </c>
       <c r="Q30" s="4"/>
       <c r="R30" s="5"/>
       <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="5"/>
-      <c r="X30" s="5"/>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T30" s="5">
+        <v>0</v>
+      </c>
+      <c r="U30" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="V30" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="W30" s="5">
+        <v>0</v>
+      </c>
+      <c r="X30" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y30">
+        <v>7</v>
+      </c>
+      <c r="AB30" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC30" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF30" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG30" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C31" s="1"/>
       <c r="F31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="J31" s="1">
+        <v>-374.9</v>
+      </c>
+      <c r="K31" s="1">
+        <v>691.5</v>
+      </c>
+      <c r="L31" s="1">
+        <v>-14397.4</v>
+      </c>
+      <c r="M31" s="1">
+        <v>-10629.03</v>
+      </c>
+      <c r="N31" s="1">
+        <v>-744.66</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1352.97</v>
+      </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="5"/>
       <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="5"/>
-      <c r="X31" s="5"/>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T31" s="5">
+        <v>0</v>
+      </c>
+      <c r="U31" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V31" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W31" s="5">
+        <v>0</v>
+      </c>
+      <c r="X31" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y31">
+        <v>7</v>
+      </c>
+      <c r="AB31" s="4">
+        <v>3</v>
+      </c>
+      <c r="AC31" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD31" s="5">
+        <v>90</v>
+      </c>
+      <c r="AE31" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF31" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="AG31" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C32" s="1"/>
       <c r="F32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="J32" s="1">
+        <v>-123</v>
+      </c>
+      <c r="K32" s="1">
+        <v>158</v>
+      </c>
+      <c r="L32" s="1">
+        <v>-13015.2</v>
+      </c>
+      <c r="M32" s="1">
+        <v>3586.23</v>
+      </c>
+      <c r="N32" s="1">
+        <v>-1381.25</v>
+      </c>
+      <c r="O32" s="1">
+        <v>675.55</v>
+      </c>
       <c r="Q32" s="4"/>
       <c r="R32" s="5"/>
       <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
-    </row>
-    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T32" s="5">
+        <v>90</v>
+      </c>
+      <c r="U32" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V32" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="W32" s="5">
+        <v>0</v>
+      </c>
+      <c r="X32" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y32">
+        <v>7</v>
+      </c>
+      <c r="AB32" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC32" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF32" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG32" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C33" s="1"/>
       <c r="F33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="J33" s="1">
+        <v>-40.5</v>
+      </c>
+      <c r="K33" s="1">
+        <v>320.60000000000002</v>
+      </c>
+      <c r="L33" s="1">
+        <v>-10500</v>
+      </c>
+      <c r="M33" s="1">
+        <v>-1417.7</v>
+      </c>
+      <c r="N33" s="1">
+        <v>673.83</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1316.42</v>
+      </c>
       <c r="Q33" s="4"/>
       <c r="R33" s="5"/>
       <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="5"/>
-      <c r="X33" s="5"/>
-    </row>
-    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T33" s="5">
+        <v>0</v>
+      </c>
+      <c r="U33" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V33" s="5">
+        <v>3</v>
+      </c>
+      <c r="W33" s="5">
+        <v>0</v>
+      </c>
+      <c r="X33" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y33">
+        <v>7</v>
+      </c>
+      <c r="AB33" s="4">
+        <v>5</v>
+      </c>
+      <c r="AC33" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD33" s="5">
+        <v>90</v>
+      </c>
+      <c r="AE33" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF33" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG33" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C34" s="1"/>
       <c r="F34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="J34" s="1">
+        <v>-650.9</v>
+      </c>
+      <c r="K34" s="1">
+        <v>644.5</v>
+      </c>
+      <c r="L34" s="1">
+        <v>-12259.7</v>
+      </c>
+      <c r="M34" s="1">
+        <v>-6687.78</v>
+      </c>
+      <c r="N34" s="1">
+        <v>-3515.03</v>
+      </c>
+      <c r="O34" s="1">
+        <v>-159.19</v>
+      </c>
       <c r="Q34" s="4"/>
       <c r="R34" s="5"/>
       <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="5"/>
-      <c r="X34" s="5"/>
-    </row>
-    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T34" s="5">
+        <v>90</v>
+      </c>
+      <c r="U34" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V34" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W34" s="5">
+        <v>0</v>
+      </c>
+      <c r="X34" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y34">
+        <v>7</v>
+      </c>
+      <c r="AB34" s="4">
+        <v>6</v>
+      </c>
+      <c r="AC34" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD34" s="5">
+        <v>90</v>
+      </c>
+      <c r="AE34" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF34" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="AG34" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C35" s="1"/>
       <c r="F35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
+      <c r="J35" s="1">
+        <v>-333.1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>415.8</v>
+      </c>
+      <c r="L35" s="1">
+        <v>-12582.7</v>
+      </c>
+      <c r="M35" s="1">
+        <v>-4811.03</v>
+      </c>
+      <c r="N35" s="1">
+        <v>-1999.66</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1813.37</v>
+      </c>
       <c r="Q35" s="4"/>
       <c r="R35" s="5"/>
       <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
-    </row>
-    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T35" s="5">
+        <v>90</v>
+      </c>
+      <c r="U35" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V35" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="W35" s="5">
+        <v>0</v>
+      </c>
+      <c r="X35" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y35">
+        <v>7</v>
+      </c>
+      <c r="AB35" s="4">
+        <v>7</v>
+      </c>
+      <c r="AC35" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD35" s="5">
+        <v>180</v>
+      </c>
+      <c r="AE35" s="5">
+        <v>-1.6</v>
+      </c>
+      <c r="AF35" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="AG35" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C36" s="1"/>
       <c r="F36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
+      <c r="J36" s="1">
+        <v>-573.70000000000005</v>
+      </c>
+      <c r="K36" s="1">
+        <v>514.79999999999995</v>
+      </c>
+      <c r="L36" s="1">
+        <v>-10328.299999999999</v>
+      </c>
+      <c r="M36" s="1">
+        <v>-3342.27</v>
+      </c>
+      <c r="N36" s="1">
+        <v>-1249.79</v>
+      </c>
+      <c r="O36" s="1">
+        <v>-561.04</v>
+      </c>
       <c r="Q36" s="4"/>
       <c r="R36" s="5"/>
       <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="5"/>
-      <c r="X36" s="5"/>
-    </row>
-    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T36" s="5">
+        <v>180</v>
+      </c>
+      <c r="U36" s="5">
+        <v>-1.6</v>
+      </c>
+      <c r="V36" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="W36" s="5">
+        <v>0</v>
+      </c>
+      <c r="X36" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y36">
+        <v>7</v>
+      </c>
+      <c r="AB36" s="4">
+        <v>8</v>
+      </c>
+      <c r="AC36" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD36" s="5">
+        <v>180</v>
+      </c>
+      <c r="AE36" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AF36" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="AG36" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI36">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C37" s="1"/>
       <c r="F37" s="1"/>
       <c r="I37" s="1"/>
@@ -1812,13 +2273,50 @@
       <c r="Q37" s="4"/>
       <c r="R37" s="5"/>
       <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="5"/>
-      <c r="X37" s="5"/>
-    </row>
-    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T37" s="5">
+        <v>180</v>
+      </c>
+      <c r="U37" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="V37" s="5">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="W37" s="5">
+        <v>0</v>
+      </c>
+      <c r="X37" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y37">
+        <v>7</v>
+      </c>
+      <c r="AB37" s="4">
+        <v>9</v>
+      </c>
+      <c r="AC37" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD37" s="5">
+        <v>90</v>
+      </c>
+      <c r="AE37" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AF37" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="AG37" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI37">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C38" s="1"/>
       <c r="F38" s="1"/>
       <c r="I38" s="1"/>
@@ -1831,13 +2329,50 @@
       <c r="Q38" s="4"/>
       <c r="R38" s="5"/>
       <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="5"/>
-      <c r="X38" s="5"/>
-    </row>
-    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T38" s="5">
+        <v>90</v>
+      </c>
+      <c r="U38" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="V38" s="5">
+        <v>3.8</v>
+      </c>
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y38">
+        <v>7</v>
+      </c>
+      <c r="AB38" s="4">
+        <v>10</v>
+      </c>
+      <c r="AC38" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD38" s="5">
+        <v>180</v>
+      </c>
+      <c r="AE38" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AF38" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG38" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI38">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C39" s="1"/>
       <c r="F39" s="1"/>
       <c r="I39" s="1"/>
@@ -1850,13 +2385,50 @@
       <c r="Q39" s="4"/>
       <c r="R39" s="5"/>
       <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="5"/>
-      <c r="X39" s="5"/>
-    </row>
-    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T39" s="5">
+        <v>180</v>
+      </c>
+      <c r="U39" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="V39" s="5">
+        <v>3</v>
+      </c>
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y39">
+        <v>7</v>
+      </c>
+      <c r="AB39" s="4">
+        <v>11</v>
+      </c>
+      <c r="AC39" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>90</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AF39" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI39">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C40" s="1"/>
       <c r="F40" s="1"/>
       <c r="I40" s="1"/>
@@ -1869,13 +2441,50 @@
       <c r="Q40" s="4"/>
       <c r="R40" s="5"/>
       <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="5"/>
-      <c r="X40" s="5"/>
-    </row>
-    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T40" s="5">
+        <v>90</v>
+      </c>
+      <c r="U40" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="V40" s="5">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="W40" s="5">
+        <v>0</v>
+      </c>
+      <c r="X40" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y40">
+        <v>7</v>
+      </c>
+      <c r="AB40" s="4">
+        <v>12</v>
+      </c>
+      <c r="AC40" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD40" s="5">
+        <v>90</v>
+      </c>
+      <c r="AE40" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AF40" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="AG40" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C41" s="1"/>
       <c r="F41" s="1"/>
       <c r="I41" s="1"/>
@@ -1888,13 +2497,50 @@
       <c r="Q41" s="4"/>
       <c r="R41" s="5"/>
       <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5"/>
-      <c r="V41" s="5"/>
-      <c r="W41" s="5"/>
-      <c r="X41" s="5"/>
-    </row>
-    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T41" s="5">
+        <v>90</v>
+      </c>
+      <c r="U41" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="V41" s="5">
+        <v>1.4</v>
+      </c>
+      <c r="W41" s="5">
+        <v>0</v>
+      </c>
+      <c r="X41" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y41">
+        <v>7</v>
+      </c>
+      <c r="AB41" s="4">
+        <v>13</v>
+      </c>
+      <c r="AC41" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD41" s="5">
+        <v>180</v>
+      </c>
+      <c r="AE41" s="5">
+        <v>-1.6</v>
+      </c>
+      <c r="AF41" s="5">
+        <v>-1.4</v>
+      </c>
+      <c r="AG41" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI41">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C42" s="1"/>
       <c r="F42" s="1"/>
       <c r="I42" s="1"/>
@@ -1907,13 +2553,50 @@
       <c r="Q42" s="4"/>
       <c r="R42" s="5"/>
       <c r="S42" s="5"/>
-      <c r="T42" s="5"/>
-      <c r="U42" s="5"/>
-      <c r="V42" s="5"/>
-      <c r="W42" s="5"/>
-      <c r="X42" s="5"/>
-    </row>
-    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T42" s="5">
+        <v>180</v>
+      </c>
+      <c r="U42" s="5">
+        <v>-1.6</v>
+      </c>
+      <c r="V42" s="5">
+        <v>-1.4</v>
+      </c>
+      <c r="W42" s="5">
+        <v>0</v>
+      </c>
+      <c r="X42" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y42">
+        <v>7</v>
+      </c>
+      <c r="AB42" s="4">
+        <v>14</v>
+      </c>
+      <c r="AC42" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD42" s="5">
+        <v>180</v>
+      </c>
+      <c r="AE42" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AF42" s="5">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AG42" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI42">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C43" s="1"/>
       <c r="F43" s="1"/>
       <c r="I43" s="1"/>
@@ -1926,13 +2609,50 @@
       <c r="Q43" s="4"/>
       <c r="R43" s="5"/>
       <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5"/>
-      <c r="V43" s="5"/>
-      <c r="W43" s="5"/>
-      <c r="X43" s="5"/>
-    </row>
-    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T43" s="5">
+        <v>180</v>
+      </c>
+      <c r="U43" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="V43" s="5">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="W43" s="5">
+        <v>0</v>
+      </c>
+      <c r="X43" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y43">
+        <v>7</v>
+      </c>
+      <c r="AB43" s="4">
+        <v>15</v>
+      </c>
+      <c r="AC43" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD43" s="5">
+        <v>270</v>
+      </c>
+      <c r="AE43" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AF43" s="5">
+        <v>-3.8</v>
+      </c>
+      <c r="AG43" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI43">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C44" s="1"/>
       <c r="F44" s="1"/>
       <c r="I44" s="1"/>
@@ -1945,13 +2665,50 @@
       <c r="Q44" s="4"/>
       <c r="R44" s="5"/>
       <c r="S44" s="5"/>
-      <c r="T44" s="5"/>
-      <c r="U44" s="5"/>
-      <c r="V44" s="5"/>
-      <c r="W44" s="5"/>
-      <c r="X44" s="5"/>
-    </row>
-    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T44" s="5">
+        <v>270</v>
+      </c>
+      <c r="U44" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="V44" s="5">
+        <v>-3.8</v>
+      </c>
+      <c r="W44" s="5">
+        <v>0</v>
+      </c>
+      <c r="X44" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y44">
+        <v>7</v>
+      </c>
+      <c r="AB44" s="4">
+        <v>16</v>
+      </c>
+      <c r="AC44" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD44" s="5">
+        <v>180</v>
+      </c>
+      <c r="AE44" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AF44" s="5">
+        <v>-3</v>
+      </c>
+      <c r="AG44" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C45" s="1"/>
       <c r="F45" s="1"/>
       <c r="I45" s="1"/>
@@ -1964,13 +2721,50 @@
       <c r="Q45" s="4"/>
       <c r="R45" s="5"/>
       <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
-    </row>
-    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T45" s="5">
+        <v>180</v>
+      </c>
+      <c r="U45" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="V45" s="5">
+        <v>-3</v>
+      </c>
+      <c r="W45" s="5">
+        <v>0</v>
+      </c>
+      <c r="X45" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y45">
+        <v>7</v>
+      </c>
+      <c r="AB45" s="4">
+        <v>17</v>
+      </c>
+      <c r="AC45" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD45" s="5">
+        <v>270</v>
+      </c>
+      <c r="AE45" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AF45" s="5">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AG45" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C46" s="1"/>
       <c r="F46" s="1"/>
       <c r="I46" s="1"/>
@@ -1983,13 +2777,50 @@
       <c r="Q46" s="4"/>
       <c r="R46" s="5"/>
       <c r="S46" s="5"/>
-      <c r="T46" s="5"/>
-      <c r="U46" s="5"/>
-      <c r="V46" s="5"/>
-      <c r="W46" s="5"/>
-      <c r="X46" s="5"/>
-    </row>
-    <row r="47" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T46" s="5">
+        <v>270</v>
+      </c>
+      <c r="U46" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="V46" s="5">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="W46" s="5">
+        <v>0</v>
+      </c>
+      <c r="X46" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y46">
+        <v>7</v>
+      </c>
+      <c r="AB46" s="4">
+        <v>18</v>
+      </c>
+      <c r="AC46" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD46" s="5">
+        <v>270</v>
+      </c>
+      <c r="AE46" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="AF46" s="5">
+        <v>-1.4</v>
+      </c>
+      <c r="AG46" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI46">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C47" s="1"/>
       <c r="F47" s="1"/>
       <c r="I47" s="1"/>
@@ -2002,13 +2833,50 @@
       <c r="Q47" s="4"/>
       <c r="R47" s="5"/>
       <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5"/>
-      <c r="V47" s="5"/>
-      <c r="W47" s="5"/>
-      <c r="X47" s="5"/>
-    </row>
-    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T47" s="5">
+        <v>270</v>
+      </c>
+      <c r="U47" s="5">
+        <v>-0.8</v>
+      </c>
+      <c r="V47" s="5">
+        <v>-1.4</v>
+      </c>
+      <c r="W47" s="5">
+        <v>0</v>
+      </c>
+      <c r="X47" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y47">
+        <v>7</v>
+      </c>
+      <c r="AB47" s="4">
+        <v>19</v>
+      </c>
+      <c r="AC47" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD47" s="5">
+        <v>360</v>
+      </c>
+      <c r="AE47" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="AF47" s="5">
+        <v>-1.4</v>
+      </c>
+      <c r="AG47" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI47">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C48" s="1"/>
       <c r="F48" s="1"/>
       <c r="I48" s="1"/>
@@ -2021,13 +2889,50 @@
       <c r="Q48" s="4"/>
       <c r="R48" s="5"/>
       <c r="S48" s="5"/>
-      <c r="T48" s="5"/>
-      <c r="U48" s="5"/>
-      <c r="V48" s="5"/>
-      <c r="W48" s="5"/>
-      <c r="X48" s="5"/>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T48" s="5">
+        <v>360</v>
+      </c>
+      <c r="U48" s="5">
+        <v>1.6</v>
+      </c>
+      <c r="V48" s="5">
+        <v>-1.4</v>
+      </c>
+      <c r="W48" s="5">
+        <v>0</v>
+      </c>
+      <c r="X48" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y48">
+        <v>7</v>
+      </c>
+      <c r="AB48" s="4">
+        <v>20</v>
+      </c>
+      <c r="AC48" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD48" s="5">
+        <v>360</v>
+      </c>
+      <c r="AE48" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF48" s="5">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="AG48" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C49" s="1"/>
       <c r="F49" s="1"/>
       <c r="I49" s="1"/>
@@ -2040,13 +2945,50 @@
       <c r="Q49" s="4"/>
       <c r="R49" s="5"/>
       <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T49" s="5">
+        <v>360</v>
+      </c>
+      <c r="U49" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V49" s="5">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="W49" s="5">
+        <v>0</v>
+      </c>
+      <c r="X49" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y49">
+        <v>7</v>
+      </c>
+      <c r="AB49" s="4">
+        <v>21</v>
+      </c>
+      <c r="AC49" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD49" s="5">
+        <v>270</v>
+      </c>
+      <c r="AE49" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF49" s="5">
+        <v>-3.8</v>
+      </c>
+      <c r="AG49" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI49">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C50" s="1"/>
       <c r="F50" s="1"/>
       <c r="I50" s="1"/>
@@ -2059,13 +3001,50 @@
       <c r="Q50" s="4"/>
       <c r="R50" s="5"/>
       <c r="S50" s="5"/>
-      <c r="T50" s="5"/>
-      <c r="U50" s="5"/>
-      <c r="V50" s="5"/>
-      <c r="W50" s="5"/>
-      <c r="X50" s="5"/>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T50" s="5">
+        <v>270</v>
+      </c>
+      <c r="U50" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V50" s="5">
+        <v>-3.8</v>
+      </c>
+      <c r="W50" s="5">
+        <v>0</v>
+      </c>
+      <c r="X50" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y50">
+        <v>7</v>
+      </c>
+      <c r="AB50" s="4">
+        <v>22</v>
+      </c>
+      <c r="AC50" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD50" s="5">
+        <v>360</v>
+      </c>
+      <c r="AE50" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF50" s="5">
+        <v>-3</v>
+      </c>
+      <c r="AG50" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI50">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C51" s="1"/>
       <c r="F51" s="1"/>
       <c r="I51" s="1"/>
@@ -2078,13 +3057,50 @@
       <c r="Q51" s="4"/>
       <c r="R51" s="5"/>
       <c r="S51" s="5"/>
-      <c r="T51" s="5"/>
-      <c r="U51" s="5"/>
-      <c r="V51" s="5"/>
-      <c r="W51" s="5"/>
-      <c r="X51" s="5"/>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T51" s="5">
+        <v>360</v>
+      </c>
+      <c r="U51" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V51" s="5">
+        <v>-3</v>
+      </c>
+      <c r="W51" s="5">
+        <v>0</v>
+      </c>
+      <c r="X51" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y51">
+        <v>7</v>
+      </c>
+      <c r="AB51" s="4">
+        <v>23</v>
+      </c>
+      <c r="AC51" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD51" s="5">
+        <v>270</v>
+      </c>
+      <c r="AE51" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF51" s="5">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="AG51" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C52" s="1"/>
       <c r="F52" s="1"/>
       <c r="I52" s="1"/>
@@ -2097,13 +3113,50 @@
       <c r="Q52" s="4"/>
       <c r="R52" s="5"/>
       <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T52" s="5">
+        <v>270</v>
+      </c>
+      <c r="U52" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V52" s="5">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="W52" s="5">
+        <v>0</v>
+      </c>
+      <c r="X52" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y52">
+        <v>7</v>
+      </c>
+      <c r="AB52" s="4">
+        <v>24</v>
+      </c>
+      <c r="AC52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD52" s="5">
+        <v>270</v>
+      </c>
+      <c r="AE52" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="AF52" s="5">
+        <v>-1.4</v>
+      </c>
+      <c r="AG52" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="5">
+        <v>4</v>
+      </c>
+      <c r="AI52">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C53" s="1"/>
       <c r="F53" s="1"/>
       <c r="I53" s="1"/>
@@ -2116,13 +3169,34 @@
       <c r="Q53" s="4"/>
       <c r="R53" s="5"/>
       <c r="S53" s="5"/>
-      <c r="T53" s="5"/>
-      <c r="U53" s="5"/>
-      <c r="V53" s="5"/>
-      <c r="W53" s="5"/>
-      <c r="X53" s="5"/>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="T53" s="5">
+        <v>270</v>
+      </c>
+      <c r="U53" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="V53" s="5">
+        <v>-1.4</v>
+      </c>
+      <c r="W53" s="5">
+        <v>0</v>
+      </c>
+      <c r="X53" s="5">
+        <v>4</v>
+      </c>
+      <c r="Y53">
+        <v>7</v>
+      </c>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="5"/>
+      <c r="AD53" s="5"/>
+      <c r="AE53" s="5"/>
+      <c r="AF53" s="5"/>
+      <c r="AG53" s="5"/>
+      <c r="AH53" s="5"/>
+      <c r="AI53" s="5"/>
+    </row>
+    <row r="54" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C54" s="1"/>
       <c r="F54" s="1"/>
       <c r="I54" s="1"/>
@@ -2140,8 +3214,16 @@
       <c r="V54" s="5"/>
       <c r="W54" s="5"/>
       <c r="X54" s="5"/>
-    </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="5"/>
+      <c r="AD54" s="5"/>
+      <c r="AE54" s="5"/>
+      <c r="AF54" s="5"/>
+      <c r="AG54" s="5"/>
+      <c r="AH54" s="5"/>
+      <c r="AI54" s="5"/>
+    </row>
+    <row r="55" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C55" s="1"/>
       <c r="F55" s="1"/>
       <c r="I55" s="1"/>
@@ -2159,8 +3241,16 @@
       <c r="V55" s="5"/>
       <c r="W55" s="5"/>
       <c r="X55" s="5"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="5"/>
+      <c r="AD55" s="5"/>
+      <c r="AE55" s="5"/>
+      <c r="AF55" s="5"/>
+      <c r="AG55" s="5"/>
+      <c r="AH55" s="5"/>
+      <c r="AI55" s="5"/>
+    </row>
+    <row r="56" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C56" s="1"/>
       <c r="F56" s="1"/>
       <c r="I56" s="1"/>
@@ -2178,8 +3268,16 @@
       <c r="V56" s="5"/>
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="5"/>
+      <c r="AD56" s="5"/>
+      <c r="AE56" s="5"/>
+      <c r="AF56" s="5"/>
+      <c r="AG56" s="5"/>
+      <c r="AH56" s="5"/>
+      <c r="AI56" s="5"/>
+    </row>
+    <row r="57" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C57" s="1"/>
       <c r="F57" s="1"/>
       <c r="I57" s="1"/>
@@ -2197,8 +3295,16 @@
       <c r="V57" s="5"/>
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="5"/>
+      <c r="AD57" s="5"/>
+      <c r="AE57" s="5"/>
+      <c r="AF57" s="5"/>
+      <c r="AG57" s="5"/>
+      <c r="AH57" s="5"/>
+      <c r="AI57" s="5"/>
+    </row>
+    <row r="58" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C58" s="1"/>
       <c r="F58" s="1"/>
       <c r="I58" s="1"/>
@@ -2216,8 +3322,16 @@
       <c r="V58" s="5"/>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="5"/>
+      <c r="AD58" s="5"/>
+      <c r="AE58" s="5"/>
+      <c r="AF58" s="5"/>
+      <c r="AG58" s="5"/>
+      <c r="AH58" s="5"/>
+      <c r="AI58" s="5"/>
+    </row>
+    <row r="59" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C59" s="1"/>
       <c r="F59" s="1"/>
       <c r="I59" s="1"/>
@@ -2235,8 +3349,16 @@
       <c r="V59" s="5"/>
       <c r="W59" s="5"/>
       <c r="X59" s="5"/>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="5"/>
+      <c r="AD59" s="5"/>
+      <c r="AE59" s="5"/>
+      <c r="AF59" s="5"/>
+      <c r="AG59" s="5"/>
+      <c r="AH59" s="5"/>
+      <c r="AI59" s="5"/>
+    </row>
+    <row r="60" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C60" s="1"/>
       <c r="F60" s="1"/>
       <c r="I60" s="1"/>
@@ -2254,8 +3376,16 @@
       <c r="V60" s="5"/>
       <c r="W60" s="5"/>
       <c r="X60" s="5"/>
-    </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="5"/>
+      <c r="AD60" s="5"/>
+      <c r="AE60" s="5"/>
+      <c r="AF60" s="5"/>
+      <c r="AG60" s="5"/>
+      <c r="AH60" s="5"/>
+      <c r="AI60" s="5"/>
+    </row>
+    <row r="61" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C61" s="1"/>
       <c r="F61" s="1"/>
       <c r="I61" s="1"/>
@@ -2273,8 +3403,16 @@
       <c r="V61" s="5"/>
       <c r="W61" s="5"/>
       <c r="X61" s="5"/>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.25">
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="5"/>
+      <c r="AD61" s="5"/>
+      <c r="AE61" s="5"/>
+      <c r="AF61" s="5"/>
+      <c r="AG61" s="5"/>
+      <c r="AH61" s="5"/>
+      <c r="AI61" s="5"/>
+    </row>
+    <row r="62" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C62" s="1"/>
       <c r="F62" s="1"/>
       <c r="I62" s="1"/>
@@ -2293,7 +3431,7 @@
       <c r="W62" s="5"/>
       <c r="X62" s="5"/>
     </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
       <c r="F63" s="1"/>
       <c r="I63" s="1"/>
@@ -2312,7 +3450,7 @@
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
     </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:35" x14ac:dyDescent="0.25">
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
